--- a/dist/serena/大类26小类3/停车点-聚类中心location.xlsx
+++ b/dist/serena/大类26小类3/停车点-聚类中心location.xlsx
@@ -16,13 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
+    <t>[121.29379510176992, 30.937770805309736]</t>
+  </si>
+  <si>
     <t>[121.3326057366548, 30.88239128469751]</t>
   </si>
   <si>
     <t>[121.234051045, 30.896416335]</t>
   </si>
   <si>
-    <t>[121.29379510176992, 30.937770805309736]</t>
+    <t>[121.43584972361809, 31.074663511306532]</t>
   </si>
   <si>
     <t>[121.4464170250896, 31.10612553942652]</t>
@@ -31,60 +34,57 @@
     <t>[121.41206800527705, 31.110477039577837]</t>
   </si>
   <si>
-    <t>[121.43584972361809, 31.074663511306532]</t>
+    <t>[121.27812775054704, 31.27030659737418]</t>
+  </si>
+  <si>
+    <t>[121.32588585684431, 31.247043918495297]</t>
   </si>
   <si>
     <t>[121.30259714854111, 31.292137623342175]</t>
   </si>
   <si>
-    <t>[121.32588585684431, 31.247043918495297]</t>
-  </si>
-  <si>
-    <t>[121.27812775054704, 31.27030659737418]</t>
+    <t>[121.76139474358975, 31.157857891025643]</t>
+  </si>
+  <si>
+    <t>[121.69674681589959, 31.2233875]</t>
   </si>
   <si>
     <t>[121.70393281067962, 31.167998106796116]</t>
   </si>
   <si>
-    <t>[121.76139474358975, 31.157857891025643]</t>
-  </si>
-  <si>
-    <t>[121.69674681589959, 31.2233875]</t>
-  </si>
-  <si>
-    <t>[121.15909456005056, 31.17027112642225]</t>
-  </si>
-  <si>
-    <t>[121.19563994467214, 31.13435299180328]</t>
-  </si>
-  <si>
-    <t>[121.18507188205129, 31.184560443589746]</t>
-  </si>
-  <si>
-    <t>[121.48846933756346, 31.276518106598985]</t>
-  </si>
-  <si>
-    <t>[121.44087990301003, 31.290980152173912]</t>
+    <t>[121.19850578756477, 31.129373098445598]</t>
+  </si>
+  <si>
+    <t>[121.15804207486632, 31.170769629679146]</t>
+  </si>
+  <si>
+    <t>[121.18440265046729, 31.176735691588785]</t>
+  </si>
+  <si>
+    <t>[121.44083210720268, 31.29096598994975]</t>
+  </si>
+  <si>
+    <t>[121.48842109620253, 31.27657612405063]</t>
   </si>
   <si>
     <t>[121.45930308695652, 31.2622702807971]</t>
   </si>
   <si>
+    <t>[121.16073021237113, 31.36777192783505]</t>
+  </si>
+  <si>
+    <t>[121.19763561538461, 31.428111994405594]</t>
+  </si>
+  <si>
     <t>[121.2293370620155, 31.369156492248063]</t>
   </si>
   <si>
-    <t>[121.16073021237113, 31.36777192783505]</t>
-  </si>
-  <si>
-    <t>[121.19763561538461, 31.428111994405594]</t>
+    <t>[121.54314676702509, 31.19290435125448]</t>
   </si>
   <si>
     <t>[121.50496499006623, 31.171566082781457]</t>
   </si>
   <si>
-    <t>[121.54314676702509, 31.19290435125448]</t>
-  </si>
-  <si>
     <t>[121.52779911851852, 31.228419505185187]</t>
   </si>
   <si>
@@ -100,30 +100,30 @@
     <t>[121.31896138064516, 31.44771026451613]</t>
   </si>
   <si>
+    <t>[121.2602318593156, 31.455630311787072]</t>
+  </si>
+  <si>
     <t>[121.27624472285714, 31.41517617142857]</t>
   </si>
   <si>
-    <t>[121.2602318593156, 31.455630311787072]</t>
-  </si>
-  <si>
     <t>[121.25440925925926, 30.792247969135804]</t>
   </si>
   <si>
+    <t>[121.33800413387978, 30.74893973770492]</t>
+  </si>
+  <si>
     <t>[121.3331318708134, 30.825260208133972]</t>
   </si>
   <si>
-    <t>[121.33800413387978, 30.74893973770492]</t>
-  </si>
-  <si>
     <t>[121.06038812328767, 30.999795773972604]</t>
   </si>
   <si>
+    <t>[121.05300599137931, 31.09098545689655]</t>
+  </si>
+  <si>
     <t>[120.948118, 31.058538714285714]</t>
   </si>
   <si>
-    <t>[121.05300599137931, 31.09098545689655]</t>
-  </si>
-  <si>
     <t>[121.71716475873016, 31.036894812698414]</t>
   </si>
   <si>
@@ -133,57 +133,57 @@
     <t>[121.80155420833333, 30.936841958333332]</t>
   </si>
   <si>
-    <t>[121.27783909135083, 31.185602610301263]</t>
-  </si>
-  <si>
-    <t>[121.22522104700855, 31.19762098076923]</t>
-  </si>
-  <si>
-    <t>[121.25992210578842, 31.223430964071856]</t>
+    <t>[121.22397535280899, 31.197573793258428]</t>
+  </si>
+  <si>
+    <t>[121.26036514985995, 31.215954369747898]</t>
+  </si>
+  <si>
+    <t>[121.28122896424314, 31.182716162097734]</t>
+  </si>
+  <si>
+    <t>[121.31142672877358, 31.03317992216981]</t>
+  </si>
+  <si>
+    <t>[121.2669888372093, 31.031540703041145]</t>
   </si>
   <si>
     <t>[121.29389483658537, 30.998810017073172]</t>
   </si>
   <si>
-    <t>[121.31142672877358, 31.03317992216981]</t>
-  </si>
-  <si>
-    <t>[121.2669888372093, 31.031540703041145]</t>
+    <t>[121.14149291111111, 31.24749635]</t>
   </si>
   <si>
     <t>[121.11322075535715, 31.177737189285715]</t>
   </si>
   <si>
-    <t>[121.14149291111111, 31.24749635]</t>
-  </si>
-  <si>
     <t>[121.089401536, 31.247974688]</t>
   </si>
   <si>
-    <t>[121.51194749763033, 31.125444018957346]</t>
-  </si>
-  <si>
-    <t>[121.5597451058201, 31.11119092857143]</t>
-  </si>
-  <si>
-    <t>[121.52146647495682, 31.06707835060449]</t>
+    <t>[121.51821302843602, 31.131022947867297]</t>
+  </si>
+  <si>
+    <t>[121.52097606289308, 31.069729331761007]</t>
+  </si>
+  <si>
+    <t>[121.56339543925233, 31.110104445482865]</t>
+  </si>
+  <si>
+    <t>[121.18105024347827, 31.300620060869566]</t>
+  </si>
+  <si>
+    <t>[121.21118597938144, 31.248468111340205]</t>
   </si>
   <si>
     <t>[121.2406512597809, 31.29319201251956]</t>
   </si>
   <si>
-    <t>[121.18105024347827, 31.300620060869566]</t>
-  </si>
-  <si>
-    <t>[121.21118597938144, 31.248468111340205]</t>
+    <t>[121.6034580641562, 31.256472635983265]</t>
   </si>
   <si>
     <t>[121.65936080874317, 31.271554027322406]</t>
   </si>
   <si>
-    <t>[121.6034580641562, 31.256472635983265]</t>
-  </si>
-  <si>
     <t>[121.58939949668874, 31.32333409933775]</t>
   </si>
   <si>
@@ -196,13 +196,13 @@
     <t>[121.37122658301158, 31.0084107992278]</t>
   </si>
   <si>
-    <t>[121.2963775561993, 31.35878010428737]</t>
-  </si>
-  <si>
-    <t>[121.32598791364205, 31.32433176971214]</t>
-  </si>
-  <si>
-    <t>[121.26449054302671, 31.337085296735903]</t>
+    <t>[121.29724701650943, 31.358251213443395]</t>
+  </si>
+  <si>
+    <t>[121.32441834819276, 31.323535489156626]</t>
+  </si>
+  <si>
+    <t>[121.26180307788162, 31.342786834890966]</t>
   </si>
   <si>
     <t>[121.466193651341, 31.204166664750957]</t>
@@ -232,22 +232,22 @@
     <t>[121.41034262204724, 31.212862047244094]</t>
   </si>
   <si>
+    <t>[121.62230992987804, 31.13983694512195]</t>
+  </si>
+  <si>
+    <t>[121.61348805868545, 31.19750249061033]</t>
+  </si>
+  <si>
     <t>[121.56798875342466, 31.15270500913242]</t>
   </si>
   <si>
-    <t>[121.62230992987804, 31.13983694512195]</t>
-  </si>
-  <si>
-    <t>[121.61348805868545, 31.19750249061033]</t>
-  </si>
-  <si>
     <t>[121.14618457627118, 31.022112451977403]</t>
   </si>
   <si>
+    <t>[121.21024793283583, 30.999778007462687]</t>
+  </si>
+  <si>
     <t>[121.20948352348994, 31.0423443557047]</t>
-  </si>
-  <si>
-    <t>[121.21024793283583, 30.999778007462687]</t>
   </si>
 </sst>
 </file>
